--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>965985.3252655423</v>
+        <v>963549.6883418354</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673421</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>64.43856447801488</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>91.7394265017481</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>126.373036149391</v>
+        <v>262.4033500842938</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>299.5215209693907</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>108.6227103352896</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>118.2708408728599</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.4763165787511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>171.6883503554928</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>20.92365879439145</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>69.60662835550704</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>125.9145235174924</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>158.2123312937509</v>
+        <v>28.1174966230077</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238018</v>
+        <v>22.60777203238013</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114097</v>
+        <v>97.97552699114094</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035181</v>
+        <v>9.753166794035167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.49323411539594</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>136.6856111842631</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146332</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076761</v>
@@ -1582,7 +1582,7 @@
         <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001815</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119295</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>205.7736450358479</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>73.93222849083783</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986269</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>176.1811323375802</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>117.4665281367397</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710083</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986251</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>101.0545458193613</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784675</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.613741235229228</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>139.5115415340518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695449</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>1.207068174439562</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>148.615473018209</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419834054</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365937</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417127</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819329</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419834278</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>177.1006680594867</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="42">
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>5.890337106877801</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F46" t="n">
-        <v>72.976073321717</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1555.338782035317</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1186.376265094905</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D2" t="n">
-        <v>828.1105664881544</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2332.07795407525</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1941.938622099438</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,13 +4410,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4428,31 +4428,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.7821255545682</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="C4" t="n">
-        <v>362.8459426266613</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4525,13 +4525,13 @@
         <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>752.5747046980983</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="X4" t="n">
-        <v>752.5747046980983</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y4" t="n">
-        <v>531.7821255545682</v>
+        <v>394.3777680445654</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1753.263343671914</v>
+        <v>1892.963660013481</v>
       </c>
       <c r="C5" t="n">
-        <v>1384.300826731502</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1026.035128124752</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>640.2468755265072</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>633.3013747773037</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>218.2289246223002</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,7 +4577,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997115</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.863183736035</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y5" t="n">
-        <v>2139.863183736035</v>
+        <v>1892.963660013481</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625.6709106036544</v>
+        <v>651.920382101508</v>
       </c>
       <c r="C7" t="n">
-        <v>625.6709106036544</v>
+        <v>482.9841991736012</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>332.8675597612654</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>872.3234075408143</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X7" t="n">
-        <v>644.3338566427969</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y7" t="n">
-        <v>625.6709106036544</v>
+        <v>651.920382101508</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1774.969111598456</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1406.006594658045</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1047.740896051294</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>661.9526434530499</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>250.9667386634423</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>239.9346925488429</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923658</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.568951662578</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>2161.568951662578</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.7237329438971</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>136.8218420438067</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1710.277703454614</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1488.51108802414</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1199.408221149784</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>944.7237329438971</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>944.7237329438971</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>944.7237329438971</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>944.7237329438971</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1788.749549056746</v>
+        <v>1535.258832689356</v>
       </c>
       <c r="C11" t="n">
-        <v>1419.787032116334</v>
+        <v>1166.296315748944</v>
       </c>
       <c r="D11" t="n">
-        <v>1061.521333509583</v>
+        <v>808.0306171421939</v>
       </c>
       <c r="E11" t="n">
-        <v>675.7330809113391</v>
+        <v>422.2423645439499</v>
       </c>
       <c r="F11" t="n">
-        <v>515.9226452610854</v>
+        <v>393.8408528035377</v>
       </c>
       <c r="G11" t="n">
-        <v>101.3471995907325</v>
+        <v>393.8408528035377</v>
       </c>
       <c r="H11" t="n">
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386831</v>
+        <v>308.7333971386838</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420321</v>
+        <v>704.5155104420328</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301227</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878111</v>
+        <v>1851.484858878112</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2485.180661765428</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687103</v>
+        <v>3070.226377687105</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856286</v>
+        <v>3535.048359856287</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882244</v>
+        <v>3835.937563882246</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234594</v>
+        <v>3925.553311234596</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455664</v>
+        <v>3826.588132455666</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971443</v>
+        <v>3622.786021971446</v>
       </c>
       <c r="U11" t="n">
-        <v>3622.786021971443</v>
+        <v>3369.295305604054</v>
       </c>
       <c r="V11" t="n">
-        <v>3291.723134627873</v>
+        <v>3038.232418260483</v>
       </c>
       <c r="W11" t="n">
-        <v>2938.954479357759</v>
+        <v>2685.463762990369</v>
       </c>
       <c r="X11" t="n">
-        <v>2565.488721096679</v>
+        <v>2311.998004729289</v>
       </c>
       <c r="Y11" t="n">
-        <v>2175.349389120867</v>
+        <v>1921.858672753478</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503049</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469189</v>
+        <v>196.8120623792131</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831296</v>
+        <v>477.1621322376509</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104395</v>
+        <v>900.449939664961</v>
       </c>
       <c r="M12" t="n">
-        <v>1295.462717754329</v>
+        <v>1337.65880522496</v>
       </c>
       <c r="N12" t="n">
-        <v>1836.771025105396</v>
+        <v>1878.967112576027</v>
       </c>
       <c r="O12" t="n">
-        <v>2309.742577971146</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>688.2557522378961</v>
+        <v>385.5135230760967</v>
       </c>
       <c r="C13" t="n">
-        <v>688.2557522378961</v>
+        <v>216.5773401481898</v>
       </c>
       <c r="D13" t="n">
-        <v>538.1391128255603</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="E13" t="n">
-        <v>390.2260192431672</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="F13" t="n">
-        <v>390.2260192431672</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197099</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600402</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457706</v>
+        <v>368.4550473457708</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888921</v>
+        <v>717.5002252888924</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779222</v>
@@ -5221,28 +5221,28 @@
         <v>2155.909043551106</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551106</v>
+        <v>2076.102739014274</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906989</v>
+        <v>1888.302075370157</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457034</v>
+        <v>1667.488017920203</v>
       </c>
       <c r="U13" t="n">
-        <v>1747.294322457034</v>
+        <v>1378.397311360492</v>
       </c>
       <c r="V13" t="n">
-        <v>1492.609834251148</v>
+        <v>1123.712823154605</v>
       </c>
       <c r="W13" t="n">
-        <v>1203.192664214187</v>
+        <v>834.2956531176442</v>
       </c>
       <c r="X13" t="n">
-        <v>975.2031133161695</v>
+        <v>606.3061022196268</v>
       </c>
       <c r="Y13" t="n">
-        <v>754.4105341726394</v>
+        <v>385.5135230760967</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,67 +5261,67 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608048</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894392</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="L15" t="n">
-        <v>423.3203657894392</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="M15" t="n">
-        <v>1015.338720041567</v>
+        <v>698.3321947254761</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.434683440903</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1015.754398433617</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>846.8182155057104</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>696.7015760933747</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109816</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130712</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876501</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156341</v>
       </c>
       <c r="K16" t="n">
         <v>431.4224730861979</v>
@@ -5449,37 +5449,37 @@
         <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020527</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368668</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107599</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2177.346239107599</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>2177.346239107599</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1922.661750901712</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1633.244580864751</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1405.255029966734</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>1197.402863263857</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5501,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C19" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D19" t="n">
-        <v>545.3854261579752</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E19" t="n">
-        <v>397.472332575582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>250.5823850776717</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>250.5823850776717</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910808</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536369</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5911,7 +5911,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
         <v>826.140538179774</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868272</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625424</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6160,7 +6160,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1398.968683817746</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>352.5519571452614</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811306</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532264</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2125.286319795765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1870.601831589878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1581.184661552918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1353.1951106549</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.40253151137</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362673</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>726.955532171245</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297711</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797186</v>
@@ -6622,49 +6622,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611855</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138374</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6692,13 +6692,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6719,28 +6719,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6783,22 +6783,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C34" t="n">
-        <v>385.6451336181095</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D34" t="n">
-        <v>235.5284942057738</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="35">
@@ -6914,52 +6914,52 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492579</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327616</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504995</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381638</v>
+        <v>194.800778399831</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557706</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K37" t="n">
         <v>435.7419440038343</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704549</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806531</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630013</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7151,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400759</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.917417812169</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998333</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K40" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>801.6918836311994</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C46" t="n">
-        <v>632.7557007032925</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D46" t="n">
-        <v>482.6390612909568</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>334.7259677085638</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>248.6637144479606</v>
+        <v>378.7585491187037</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.3387460665414</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>11.92986183394925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034035</v>
+        <v>89.71507747034033</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146334</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613729271</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.06136363537622</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.81100831624684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>66.36248435538606</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>110.003342051664</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>101.1181252153551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459334</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>185.1299285698829</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345294997</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.524138292274</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>210.9709121168655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.32043864788548</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.0397529241883</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844822863</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844822639</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,16 +25600,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>109.4223302771043</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>44.7370056418716</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856421</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25837,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>280.2941372823664</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F46" t="n">
-        <v>72.44497470121425</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894836.3341968554</v>
+        <v>894836.3341968559</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>973584.7733708465</v>
+        <v>973584.773370847</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>978944.9670332171</v>
+        <v>978944.967033217</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>978944.9670332171</v>
+        <v>978944.967033217</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>978944.9670332171</v>
+        <v>978944.967033217</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>978944.9670332171</v>
+        <v>978944.967033217</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>978944.9670332168</v>
+        <v>978944.9670332167</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>978944.967033217</v>
+        <v>978944.9670332171</v>
       </c>
     </row>
     <row r="14">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451572.9734253558</v>
+      </c>
+      <c r="C2" t="n">
+        <v>451572.9734253558</v>
+      </c>
+      <c r="D2" t="n">
         <v>451572.9734253559</v>
       </c>
-      <c r="C2" t="n">
-        <v>451572.9734253557</v>
-      </c>
-      <c r="D2" t="n">
-        <v>451572.9734253557</v>
-      </c>
       <c r="E2" t="n">
-        <v>405380.8397795043</v>
+        <v>405380.8397795045</v>
       </c>
       <c r="F2" t="n">
         <v>441473.8744009171</v>
@@ -26329,31 +26329,31 @@
         <v>443930.6298295035</v>
       </c>
       <c r="H2" t="n">
+        <v>443930.6298295032</v>
+      </c>
+      <c r="I2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="I2" t="n">
-        <v>443930.6298295035</v>
-      </c>
       <c r="J2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="K2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="L2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="M2" t="n">
         <v>443930.6298295033</v>
       </c>
       <c r="N2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="O2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
     </row>
     <row r="3">
@@ -26369,19 +26369,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185166</v>
+        <v>143114.1392185169</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051368</v>
+        <v>166521.3471051371</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115361</v>
+        <v>37377.32855115386</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848881</v>
+        <v>43782.40655848892</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224802</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314485</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
         <v>11067.91129448747</v>
@@ -26433,7 +26433,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
@@ -26445,13 +26445,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214717</v>
+        <v>86093.7221621472</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1075459.779886775</v>
       </c>
       <c r="C6" t="n">
-        <v>253284.9658408179</v>
+        <v>253284.9658408177</v>
       </c>
       <c r="D6" t="n">
-        <v>253284.9658408174</v>
+        <v>253284.9658408178</v>
       </c>
       <c r="E6" t="n">
-        <v>165105.067104353</v>
+        <v>164895.1028605081</v>
       </c>
       <c r="F6" t="n">
-        <v>163649.8991513737</v>
+        <v>163603.9941558078</v>
       </c>
       <c r="G6" t="n">
-        <v>320473.8315182235</v>
+        <v>320439.0935927884</v>
       </c>
       <c r="H6" t="n">
-        <v>331641.0677538028</v>
+        <v>331606.3298283667</v>
       </c>
       <c r="I6" t="n">
-        <v>331641.0677538029</v>
+        <v>331606.3298283672</v>
       </c>
       <c r="J6" t="n">
-        <v>114109.8653565254</v>
+        <v>114075.1274310896</v>
       </c>
       <c r="K6" t="n">
-        <v>331641.0677538029</v>
+        <v>331606.3298283669</v>
       </c>
       <c r="L6" t="n">
-        <v>331641.0677538029</v>
+        <v>331606.329828367</v>
       </c>
       <c r="M6" t="n">
-        <v>294263.739202649</v>
+        <v>294229.0012772131</v>
       </c>
       <c r="N6" t="n">
-        <v>287858.661195314</v>
+        <v>287823.9232698782</v>
       </c>
       <c r="O6" t="n">
-        <v>328617.7697765779</v>
+        <v>328583.0318511425</v>
       </c>
       <c r="P6" t="n">
-        <v>331641.0677538028</v>
+        <v>331606.3298283669</v>
       </c>
     </row>
   </sheetData>
@@ -26747,7 +26747,7 @@
         <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="E4" t="n">
-        <v>981.3883278086486</v>
+        <v>981.388327808649</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26963,20 +26963,20 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>122.3935669012585</v>
+      </c>
+      <c r="F3" t="n">
+        <v>145.870781221829</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9.93445162528792</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>122.3935669012583</v>
-      </c>
-      <c r="F3" t="n">
-        <v>145.8707812218288</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9.934451625288375</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.986872406356</v>
+        <v>149.9868724063564</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173575</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063563</v>
+        <v>149.9868724063566</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173575</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.986872406356</v>
+        <v>149.9868724063564</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173575</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>290.2444771426681</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>277.9916741767209</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>160.1499621872001</v>
+        <v>24.11964825229717</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>65.75137080161687</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>185.9850540520308</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>28.16312177370926</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.1083367733437</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>122.9194140318276</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>328.3173099230216</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>96.41917990352118</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>63.8545018139495</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.342851504988144e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29433,7 +29433,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.268265224834109e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.539137326801951e-12</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29682,7 +29682,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-2.821700444395419e-12</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -29706,7 +29706,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.923307972868743e-12</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.055198049622041e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-3.348081657766396e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -30204,7 +30204,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-3.885356636269263e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-6.190252600806797e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>4.336205468765305e-12</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -30636,7 +30636,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485651</v>
+        <v>4.873046301485652</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508993</v>
+        <v>49.90608543508994</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380258</v>
       </c>
       <c r="J11" t="n">
         <v>413.5937135307182</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726059</v>
+        <v>619.869763472606</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216975</v>
+        <v>769.0032542216977</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857429</v>
+        <v>855.6642913857431</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898391</v>
+        <v>869.5098341898392</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294411</v>
+        <v>821.0534800294413</v>
       </c>
       <c r="P11" t="n">
-        <v>700.750149461514</v>
+        <v>700.7501494615141</v>
       </c>
       <c r="Q11" t="n">
         <v>526.234178789559</v>
@@ -31792,7 +31792,7 @@
         <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.389843704118852</v>
+        <v>0.3898437041188521</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>25.18112197191523</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596482</v>
+        <v>89.76921320596483</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783043</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202556</v>
+        <v>421.0233277202557</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256418</v>
+        <v>566.1178216256419</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845333</v>
+        <v>583.7591506492899</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147143</v>
+        <v>678.1177801147144</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431812</v>
+        <v>620.3452877431813</v>
       </c>
       <c r="P12" t="n">
-        <v>385.6381359012545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071848</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
         <v>48.42963285697589</v>
@@ -31908,25 +31908,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236085</v>
+        <v>2.185880810236086</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737176</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691794</v>
+        <v>65.73539745691795</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.5417732836913</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619742</v>
+        <v>253.9596068619743</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509177</v>
+        <v>324.9808615509178</v>
       </c>
       <c r="M13" t="n">
-        <v>342.646752826371</v>
+        <v>342.6467528263711</v>
       </c>
       <c r="N13" t="n">
         <v>334.4993788973096</v>
@@ -31938,16 +31938,16 @@
         <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916781</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570615</v>
+        <v>98.28514988570616</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929613</v>
+        <v>38.09394102929614</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826908</v>
+        <v>9.33967255282691</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765139</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>139.4267020936821</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848223</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>643.3613231346073</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982452</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>269.1634560719508</v>
+        <v>301.1823051500296</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>246.2467565146294</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,22 +33263,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33503,13 +33503,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>263.7590256391499</v>
+        <v>705.9257335045844</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391499</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>232.5478090040319</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276253</v>
+        <v>399.7799124276254</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517103</v>
+        <v>533.2368392517105</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584702</v>
+        <v>625.3180581584704</v>
       </c>
       <c r="N11" t="n">
         <v>640.0967705932483</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077543</v>
+        <v>590.9552686077545</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062444</v>
+        <v>469.5171537062445</v>
       </c>
       <c r="Q11" t="n">
         <v>303.9284889151095</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156615</v>
+        <v>90.52095692156621</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116376</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458966</v>
+        <v>283.1818887458967</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457676</v>
+        <v>427.5634418457677</v>
       </c>
       <c r="M12" t="n">
-        <v>518.498761862515</v>
+        <v>441.6251167272716</v>
       </c>
       <c r="N12" t="n">
-        <v>546.776068031381</v>
+        <v>546.7760680313811</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987368</v>
+        <v>477.7490432987369</v>
       </c>
       <c r="P12" t="n">
-        <v>251.6637284869242</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.8390133211632</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936578</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701847</v>
+        <v>61.1825931670185</v>
       </c>
       <c r="K13" t="n">
         <v>231.6901150360914</v>
@@ -35574,19 +35574,19 @@
         <v>352.5708868112339</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882116</v>
+        <v>382.2306297882117</v>
       </c>
       <c r="N13" t="n">
         <v>378.6315512765382</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190457</v>
+        <v>333.5494446190458</v>
       </c>
       <c r="P13" t="n">
         <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998366</v>
+        <v>96.87566713998369</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>12.58907542701537</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104633</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>500.7650786901629</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.821735783915</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>127.0294221499325</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>108.4053175402704</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37002,7 +37002,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060412</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37151,13 +37151,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>132.4173135558165</v>
+        <v>574.5840214212511</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558165</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
